--- a/01_Input/00_CO Validation/Serbia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Serbia - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_8048FE8377A146D934E2F53C766C1D44588AAA59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5236E3F9-417B-43F2-BA19-C37E7C89BC88}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="11_8048FE8377A146D934E2F53C766C1D44588AAA59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5865B420-1816-4A33-9BD6-31B5904E34C0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="101">
   <si>
     <t>Project ID</t>
   </si>
@@ -102,7 +102,7 @@
     <t>http://open.undp.org/projects/00122808</t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <t>PIU capacitated and operational until the end of the project (Yes/No)</t>
@@ -127,9 +127,6 @@
     <t>Number of detailed Energy Audits (DEA) for selected CGBs conducted</t>
   </si>
   <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
     <t>Number of workshops for the EECGB Programme beneficiaries, other stakeholders and media organized</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>PIMS+</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
   </si>
   <si>
     <t>Number of direct project beneficiaries disaggregated by gender (individual people)</t>
@@ -167,6 +167,9 @@
     <t>Beneficiary: users of public buildings (6500)</t>
   </si>
   <si>
+    <t>Energy Saved</t>
+  </si>
+  <si>
     <t>Energy saved (MJ)</t>
   </si>
   <si>
@@ -177,9 +180,6 @@
   </si>
   <si>
     <t>Increase in installed renewable energy capacity (MW)</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <t>Status of the rulebooks listed under output 1.1 in chapter IV of the Prodoc</t>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
   </si>
   <si>
     <t xml:space="preserve"> 2 340 TJ</t>
@@ -584,6 +587,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,42 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,7 +946,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -960,636 +963,627 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="45.75">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="60.75">
-      <c r="A2" s="38">
+      <c r="A2" s="33">
         <v>122808</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="37">
         <v>1055099</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="40">
         <v>0</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="44" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="46" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
     </row>
     <row r="3" spans="1:22" ht="45.75">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="43" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="40">
         <v>3</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="40">
         <v>20</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
     </row>
     <row r="4" spans="1:22" ht="45.75">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="43" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="40">
         <v>0</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="40">
         <v>25</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
     </row>
     <row r="5" spans="1:22" ht="91.5" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="43" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="G5" s="40">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+    </row>
+    <row r="6" spans="1:22" ht="121.5" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G6" s="40">
         <v>0</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H6" s="40">
+        <v>12</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+    </row>
+    <row r="7" spans="1:22" ht="106.5">
+      <c r="A7" s="33">
+        <v>6388</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1505000</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="38">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+    </row>
+    <row r="8" spans="1:22" ht="45.75">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="33">
+        <v>300000</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="E9" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="38">
+        <v>2340000</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+    </row>
+    <row r="10" spans="1:22" ht="30.75">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="38">
         <v>1</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-    </row>
-    <row r="6" spans="1:22" ht="121.5" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="45">
-        <v>0</v>
-      </c>
-      <c r="H6" s="45">
-        <v>12</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-    </row>
-    <row r="7" spans="1:22" ht="106.5">
-      <c r="A7" s="38">
-        <v>6388</v>
-      </c>
-      <c r="B7" s="38" t="s">
+      <c r="I10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+    </row>
+    <row r="11" spans="1:22" ht="30.75">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+    </row>
+    <row r="12" spans="1:22" ht="91.5">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+    </row>
+    <row r="13" spans="1:22" ht="30.75">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+    </row>
+    <row r="14" spans="1:22" ht="45.75">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+    </row>
+    <row r="15" spans="1:22" ht="60.75">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="38">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="33">
+        <v>6285</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="42">
-        <v>1505000</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="D16" s="33">
+        <v>1777000</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38">
         <v>10000</v>
       </c>
-      <c r="I7" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="38" t="s">
+      <c r="I16" s="38"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-    </row>
-    <row r="8" spans="1:22" ht="45.75">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="38">
-        <v>300000</v>
-      </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="43">
-        <v>2340000</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-    </row>
-    <row r="10" spans="1:22" ht="30.75">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="43">
-        <v>1</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-    </row>
-    <row r="11" spans="1:22" ht="30.75">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-    </row>
-    <row r="12" spans="1:22" ht="91.5">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-    </row>
-    <row r="13" spans="1:22" ht="30.75">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-    </row>
-    <row r="14" spans="1:22" ht="45.75">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-    </row>
-    <row r="15" spans="1:22" ht="60.75">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="43">
-        <v>2000</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="38">
-        <v>6285</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="38">
-        <v>1777000</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43">
-        <v>10000</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="29"/>
@@ -1609,7 +1603,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7 E9:E22</xm:sqref>
+          <xm:sqref>E9:E22 E2:E7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1695,7 +1689,7 @@
         <v>1055099</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>23</v>
@@ -1707,11 +1701,11 @@
       <c r="I2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="44" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="16"/>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="44" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="16"/>
@@ -1725,7 +1719,7 @@
       <c r="C3" s="17"/>
       <c r="D3" s="16"/>
       <c r="E3" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>28</v>
@@ -1739,9 +1733,9 @@
       <c r="I3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="32"/>
+      <c r="L3" s="44"/>
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="45.75">
@@ -1750,7 +1744,7 @@
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>29</v>
@@ -1764,9 +1758,9 @@
       <c r="I4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="32"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="91.5" customHeight="1">
@@ -1775,10 +1769,10 @@
       <c r="C5" s="17"/>
       <c r="D5" s="16"/>
       <c r="E5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="21">
         <v>0</v>
@@ -1789,9 +1783,9 @@
       <c r="I5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="32"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="121.5" customHeight="1">
@@ -1800,10 +1794,10 @@
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="19" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="21">
         <v>0</v>
@@ -1814,9 +1808,9 @@
       <c r="I6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="32"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="106.5">
@@ -1824,16 +1818,16 @@
         <v>6388</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="18">
         <v>1505000</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>35</v>
@@ -1891,19 +1885,19 @@
       <c r="C9" s="16"/>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -1918,10 +1912,10 @@
       <c r="C10" s="16"/>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>36</v>
@@ -1945,7 +1939,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>48</v>
@@ -1970,7 +1964,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>49</v>
@@ -1995,7 +1989,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>51</v>
@@ -2020,7 +2014,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>52</v>
@@ -2045,7 +2039,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>53</v>
@@ -2076,7 +2070,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="16">
         <v>1777000</v>
@@ -2191,7 +2185,7 @@
         <v>1055099</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>23</v>
@@ -2200,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30.75">
       <c r="C3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>28</v>
@@ -2221,13 +2215,13 @@
         <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30.75">
       <c r="C4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
@@ -2239,16 +2233,16 @@
         <v>25</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="91.5">
       <c r="C5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2257,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="121.5">
       <c r="C6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -2275,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="106.5">
@@ -2283,16 +2277,16 @@
         <v>6388</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="9">
         <v>1505000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>35</v>
@@ -2301,7 +2295,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>37</v>
@@ -2310,7 +2304,7 @@
     <row r="8" spans="1:10" ht="45.75">
       <c r="D8" s="9"/>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>40</v>
@@ -2319,52 +2313,52 @@
         <v>36</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="9"/>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.75">
       <c r="D10" s="9"/>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30.75">
       <c r="D11" s="9"/>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>48</v>
@@ -2373,16 +2367,16 @@
         <v>36</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="121.5">
       <c r="D12" s="9"/>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>49</v>
@@ -2391,16 +2385,16 @@
         <v>36</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="D13" s="9"/>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>51</v>
@@ -2412,13 +2406,13 @@
         <v>28</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45.75">
       <c r="D14" s="9"/>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>52</v>
@@ -2427,16 +2421,16 @@
         <v>36</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60.75">
       <c r="D15" s="9"/>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>53</v>
@@ -2445,7 +2439,7 @@
         <v>36</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>54</v>
@@ -2459,7 +2453,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>1777000</v>
@@ -2505,160 +2499,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
-        <v>70</v>
+      <c r="A2" s="45" t="s">
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="33"/>
+      <c r="A3" s="45"/>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="45"/>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="34" t="s">
-        <v>76</v>
+      <c r="A5" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="46"/>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="46"/>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="46"/>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="46"/>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="35" t="s">
-        <v>86</v>
+      <c r="A10" s="47" t="s">
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="35"/>
+      <c r="A11" s="47"/>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="36" t="s">
-        <v>91</v>
+      <c r="A12" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="48"/>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="48"/>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2673,12 +2667,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2931,18 +2927,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF06756A-F120-411C-9681-B6A6BBE09C5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF437C67-40ED-4AFC-AAD6-8C1F78EC780A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2950,5 +2944,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF437C67-40ED-4AFC-AAD6-8C1F78EC780A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF06756A-F120-411C-9681-B6A6BBE09C5B}"/>
 </file>